--- a/app_balance/exemplo/exemplo.xlsx
+++ b/app_balance/exemplo/exemplo.xlsx
@@ -14,33 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Idade</t>
-  </si>
-  <si>
-    <t>Cidade</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Belo Horizonte</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Operações</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
   </si>
 </sst>
 </file>
@@ -398,54 +392,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
